--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail10 Features.xlsx
@@ -2950,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,29 +2961,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3004,115 +3002,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3129,72 +3117,66 @@
         <v>1.300411623747377e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4561779043728188</v>
+        <v>6.546723818640566e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.00480314334560461</v>
+        <v>1.180127193134815e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.546723818640566e-07</v>
+        <v>0.07029569904695761</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.180127193134815e-06</v>
+        <v>0.2285872972764278</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07029569904695761</v>
+        <v>0.05715934066010752</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2285872972764278</v>
+        <v>1.495446013830074</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05715934066010752</v>
+        <v>1.210567225761746</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.515987276760855</v>
+        <v>15.72553158044417</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.210567225761746</v>
+        <v>1.405105033693218e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>15.72553158044417</v>
+        <v>224537282.7278669</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.405105033693218e-14</v>
+        <v>4.769624366886653e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>224537282.7278669</v>
+        <v>708.4116830821453</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.769624366886653e-07</v>
+        <v>0.0001063506013046303</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>708.4116830821453</v>
+        <v>9.115316046938837</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001063506013046303</v>
+        <v>1.279145714284025</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.115316046938837</v>
+        <v>0.008836563690486398</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.279145714284025</v>
+        <v>4.425333483866879</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008836563690486398</v>
+        <v>0.9045817327329649</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.425333483866879</v>
+        <v>0.9756626351408061</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9045817327329649</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9756626351408061</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.243057353808439</v>
       </c>
     </row>
@@ -3209,72 +3191,66 @@
         <v>1.242817547486519e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6815969688247144</v>
+        <v>5.665900029185657e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.436378643033549</v>
+        <v>1.188344610197635e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.665900029185657e-07</v>
+        <v>0.05898340853125023</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.188344610197635e-06</v>
+        <v>0.2262917460174786</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05898340853125023</v>
+        <v>0.05465598266596954</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2262917460174786</v>
+        <v>1.499193809971516</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05465598266596954</v>
+        <v>1.206764027670271</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.521398417275643</v>
+        <v>16.23894173332937</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.206764027670271</v>
+        <v>1.317661973456065e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>16.23894173332937</v>
+        <v>239437543.1271392</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.317661973456065e-14</v>
+        <v>4.472833685873238e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>239437543.1271392</v>
+        <v>755.4200506774793</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.472833685873238e-07</v>
+        <v>0.000101585472743107</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>755.4200506774793</v>
+        <v>10.15553834862884</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000101585472743107</v>
+        <v>1.10036197676885</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.15553834862884</v>
+        <v>0.01047701358164163</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.10036197676885</v>
+        <v>4.496437556209317</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01047701358164163</v>
+        <v>0.9076652290164475</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.496437556209317</v>
+        <v>0.9039583819931234</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9076652290164475</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9039583819931234</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.721931052764379</v>
       </c>
     </row>
@@ -3289,72 +3265,66 @@
         <v>1.209011869923774e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7618100317256818</v>
+        <v>4.835518154312094e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.636386426648083</v>
+        <v>1.194817600135608e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.835518154312094e-07</v>
+        <v>0.04655484939358327</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.194817600135608e-06</v>
+        <v>0.2194854108936714</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04655484939358327</v>
+        <v>0.0503090509322462</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2194854108936714</v>
+        <v>1.507595666697768</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0503090509322462</v>
+        <v>1.211842621633401</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.532215681698449</v>
+        <v>16.91741898379612</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.211842621633401</v>
+        <v>1.214091026255257e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>16.91741898379612</v>
+        <v>259861476.569204</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.214091026255257e-14</v>
+        <v>4.121335385301307e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>259861476.569204</v>
+        <v>819.8512304352057</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.121335385301307e-07</v>
+        <v>9.848634226892038e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>819.8512304352057</v>
+        <v>9.652522057585177</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.848634226892038e-05</v>
+        <v>1.147651780244401</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.652522057585177</v>
+        <v>0.009176088927159471</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.147651780244401</v>
+        <v>4.662704613008757</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009176088927159471</v>
+        <v>0.916294534928221</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.662704613008757</v>
+        <v>0.9475062187440594</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.916294534928221</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9475062187440594</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.897495822787288</v>
       </c>
     </row>
@@ -3369,72 +3339,66 @@
         <v>1.194247504243376e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7407619510723131</v>
+        <v>3.980011559475202e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7233895804371118</v>
+        <v>1.199588938693603e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.980011559475202e-07</v>
+        <v>0.03277260489780046</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.199588938693603e-06</v>
+        <v>0.2057204644848126</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03277260489780046</v>
+        <v>0.04335857079576953</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2057204644848126</v>
+        <v>1.519264717891118</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04335857079576953</v>
+        <v>1.220943557700168</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.547105318536308</v>
+        <v>16.99237647977441</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.220943557700168</v>
+        <v>1.203403351077562e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>16.99237647977441</v>
+        <v>262160780.1302786</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.203403351077562e-14</v>
+        <v>4.085306229833378e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>262160780.1302786</v>
+        <v>827.0783601376951</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.085306229833378e-07</v>
+        <v>9.979681691846222e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>827.0783601376951</v>
+        <v>8.690594942178247</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.979681691846222e-05</v>
+        <v>1.249141020486077</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.690594942178247</v>
+        <v>0.007537298349993402</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.249141020486077</v>
+        <v>4.710730443297037</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007537298349993402</v>
+        <v>0.9184251173846928</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.710730443297037</v>
+        <v>0.9504815669914565</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9184251173846928</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9504815669914565</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.759219569799796</v>
       </c>
     </row>
@@ -3449,72 +3413,66 @@
         <v>1.192632343694441e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6839951754678409</v>
+        <v>3.82047139915425e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7893198969940731</v>
+        <v>1.202633115520902e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.82047139915425e-07</v>
+        <v>0.01842977680011424</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.202633115520902e-06</v>
+        <v>0.1856369017267984</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01842977680011424</v>
+        <v>0.03476726428286458</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1856369017267984</v>
+        <v>1.526748911086854</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03476726428286458</v>
+        <v>1.216875570603633</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.556454583785854</v>
+        <v>16.89117848125003</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.216875570603633</v>
+        <v>1.217866145289687e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>16.89117848125003</v>
+        <v>259049020.3633852</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.217866145289687e-14</v>
+        <v>4.134425670964809e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>259049020.3633852</v>
+        <v>817.2660654354129</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.134425670964809e-07</v>
+        <v>0.000122896083140039</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>817.2660654354129</v>
+        <v>8.529719976999829</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000122896083140039</v>
+        <v>1.538625451153151</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.529719976999829</v>
+        <v>0.008941442527148428</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.538625451153151</v>
+        <v>4.41274449998805</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008941442527148428</v>
+        <v>0.9223117517995506</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.41274449998805</v>
+        <v>0.9105251273215668</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9223117517995506</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9105251273215668</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.213022114262498</v>
       </c>
     </row>
@@ -3529,72 +3487,66 @@
         <v>1.195593048489375e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6467891366546233</v>
+        <v>3.82047139915425e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8409603210388243</v>
+        <v>1.204059838158536e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.82047139915425e-07</v>
+        <v>0.006133769695121466</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.204059838158536e-06</v>
+        <v>0.1680381994818199</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.006133769695121466</v>
+        <v>0.02825736160662783</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1680381994818199</v>
+        <v>1.537829106338944</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02825736160662783</v>
+        <v>1.208859031448026</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.570888853744243</v>
+        <v>17.13448990864613</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.208859031448026</v>
+        <v>1.183524083170093e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>17.13448990864613</v>
+        <v>266565105.4277748</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.183524083170093e-14</v>
+        <v>4.017930940702023e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>266565105.4277748</v>
+        <v>840.976180301854</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.017930940702023e-07</v>
+        <v>0.0001600965095962588</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>840.976180301854</v>
+        <v>10.3963973557749</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001600965095962588</v>
+        <v>1.369208162933061</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.3963973557749</v>
+        <v>0.0173040437239035</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.369208162933061</v>
+        <v>3.851888894014855</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0173040437239035</v>
+        <v>0.9271129104325341</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.851888894014855</v>
+        <v>0.9777006110448748</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9271129104325341</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9777006110448748</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.63619391186922</v>
       </c>
     </row>
@@ -3609,72 +3561,66 @@
         <v>1.19644893333283e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6405401098860976</v>
+        <v>3.82047139915425e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8515751819380899</v>
+        <v>1.204285149706744e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.82047139915425e-07</v>
+        <v>-0.001539206245520875</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.204285149706744e-06</v>
+        <v>0.1610876728311263</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.001539206245520875</v>
+        <v>0.02594728690522709</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1610876728311263</v>
+        <v>1.547756347225084</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02594728690522709</v>
+        <v>1.20852272828225</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.583662908044243</v>
+        <v>17.95545783436578</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.20852272828225</v>
+        <v>1.077770998399275e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>17.95545783436578</v>
+        <v>292719117.1073475</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.077770998399275e-14</v>
+        <v>3.658979694752353e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>292719117.1073475</v>
+        <v>923.4824919524776</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.658979694752353e-07</v>
+        <v>0.0001767630475211648</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>923.4824919524776</v>
+        <v>13.93970447991523</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001767630475211648</v>
+        <v>0.9909946710888508</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.93970447991523</v>
+        <v>0.03434777538830254</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.9909946710888508</v>
+        <v>3.573234156472031</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.03434777538830254</v>
+        <v>0.9332862677094419</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.573234156472031</v>
+        <v>0.9515076255808974</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9332862677094419</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9515076255808974</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.847513664436022</v>
       </c>
     </row>
@@ -3689,72 +3635,66 @@
         <v>1.194238722067304e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6518641230775288</v>
+        <v>3.82047139915425e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8284985980020982</v>
+        <v>1.203859191371856e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.82047139915425e-07</v>
+        <v>-0.004986724788672236</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.203859191371856e-06</v>
+        <v>0.16020795103757</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.004986724788672236</v>
+        <v>0.02569101180222251</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.16020795103757</v>
+        <v>1.59989993389168</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02569101180222251</v>
+        <v>1.172450057518234</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.605304492571362</v>
+        <v>11.2840123414605</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.172450057518234</v>
+        <v>9.580739892457202e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>11.2840123414605</v>
+        <v>184259944.9914734</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.580739892457202e-15</v>
+        <v>4.801394534859307e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>184259944.9914734</v>
+        <v>325.2826684316978</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.801394534859307e-07</v>
+        <v>0.0001669087442330301</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>325.2826684316978</v>
+        <v>13.17479445269885</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001669087442330301</v>
+        <v>1.054419932587095</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.17479445269885</v>
+        <v>0.0289712201426219</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.054419932587095</v>
+        <v>3.992255039404093</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0289712201426219</v>
+        <v>0.9462523585116961</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.992255039404093</v>
+        <v>1.182657337818223</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9462523585116961</v>
+        <v>9</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.182657337818223</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.303592717785235</v>
       </c>
     </row>
@@ -4131,7 +4071,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.53383624918048</v>
+        <v>1.509089236270668</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.28932793717661</v>
@@ -4220,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523035223025938</v>
+        <v>1.497130560245781</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.18815888127719</v>
@@ -4309,7 +4249,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.512906418921951</v>
+        <v>1.482248374414515</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.242301979228289</v>
@@ -4398,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515707329581345</v>
+        <v>1.486551740201417</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.113779683244205</v>
@@ -4487,7 +4427,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.519876542369612</v>
+        <v>1.487206723391463</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.088988680591795</v>
@@ -4576,7 +4516,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.518726876851426</v>
+        <v>1.485436147947075</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.188349077140767</v>
@@ -4665,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.510041700267779</v>
+        <v>1.477102784083176</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.119204327063569</v>
@@ -4754,7 +4694,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.496468235584676</v>
+        <v>1.461356979018331</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.105104623692838</v>
@@ -4843,7 +4783,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.502479271986843</v>
+        <v>1.463043056980927</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.164295517695941</v>
@@ -4932,7 +4872,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.529292853717219</v>
+        <v>1.476697496673816</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.103173026001477</v>
@@ -5021,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537836218778175</v>
+        <v>1.483895629567901</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.044936992313951</v>
@@ -5110,7 +5050,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.545802261205211</v>
+        <v>1.487739399178056</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.108920741499897</v>
@@ -5199,7 +5139,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.545188882068995</v>
+        <v>1.487532132635156</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.044944160763572</v>
@@ -5288,7 +5228,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611427061208109</v>
+        <v>1.542197197797515</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.797204809306594</v>
@@ -5377,7 +5317,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.614257330618041</v>
+        <v>1.545809462636453</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.214563841416269</v>
@@ -5466,7 +5406,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.605785119888956</v>
+        <v>1.540362452621187</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.275798255987179</v>
@@ -5555,7 +5495,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.587528759741573</v>
+        <v>1.525076105097418</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.588811555941178</v>
@@ -5644,7 +5584,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.519013401427335</v>
+        <v>1.477372436578046</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.37776972864328</v>
@@ -5733,7 +5673,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.51169127943097</v>
+        <v>1.477036157335906</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.422790234248382</v>
@@ -5822,7 +5762,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.518432409477873</v>
+        <v>1.485929107689057</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.300027541111964</v>
@@ -5911,7 +5851,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.520740660020859</v>
+        <v>1.492051768939724</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.348172818457311</v>
@@ -6000,7 +5940,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480983106291535</v>
+        <v>1.459521741225443</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.316307001068732</v>
@@ -6089,7 +6029,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.477241992091439</v>
+        <v>1.457804615801898</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.387670428811117</v>
@@ -6178,7 +6118,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.47474080528727</v>
+        <v>1.45455628895043</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.291442325511057</v>
@@ -6267,7 +6207,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.467971916024746</v>
+        <v>1.452398342570457</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.384411504039608</v>
@@ -6356,7 +6296,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.459515781435255</v>
+        <v>1.447519785756419</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.348397499988052</v>
@@ -6445,7 +6385,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.450872366117581</v>
+        <v>1.438927040559606</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.347102074982068</v>
@@ -6534,7 +6474,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.449859649716959</v>
+        <v>1.437582603876791</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.402762432661361</v>
@@ -6623,7 +6563,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.460993879723704</v>
+        <v>1.446005644803452</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.352751336511818</v>
@@ -6712,7 +6652,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.469448689746523</v>
+        <v>1.454773191881209</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.282551713041129</v>
@@ -6801,7 +6741,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.453691264948674</v>
+        <v>1.430513533762554</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.162910266606416</v>
@@ -6890,7 +6830,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.436928111222005</v>
+        <v>1.411494582897898</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.005691743504374</v>
@@ -6979,7 +6919,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.452567393651406</v>
+        <v>1.423737266876128</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.09728760951872</v>
@@ -7068,7 +7008,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.41557678527681</v>
+        <v>1.383163141844887</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.243288809928686</v>
@@ -7157,7 +7097,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.382900843058453</v>
+        <v>1.364133113731275</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.243174469402077</v>
@@ -7246,7 +7186,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.380595410225568</v>
+        <v>1.35754816733169</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.210085339308105</v>
@@ -7335,7 +7275,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.396083532812706</v>
+        <v>1.370208860957324</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.227034126695962</v>
@@ -7424,7 +7364,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.396909637858406</v>
+        <v>1.367990526657209</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.265018973988972</v>
@@ -7513,7 +7453,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.389378645374388</v>
+        <v>1.361430962484236</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.270676186356485</v>
@@ -7602,7 +7542,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.395453601654181</v>
+        <v>1.367161763922231</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.265417134127199</v>
@@ -7691,7 +7631,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.393383659864541</v>
+        <v>1.364530694129273</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.279922014007063</v>
@@ -7780,7 +7720,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.406864286657573</v>
+        <v>1.376038592452591</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.253363998674028</v>
@@ -7869,7 +7809,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.390002926505597</v>
+        <v>1.361133931941723</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.318629259744526</v>
@@ -7958,7 +7898,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.384089554897476</v>
+        <v>1.356835466163769</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.299460928441586</v>
@@ -8047,7 +7987,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.38150336488984</v>
+        <v>1.354670651256936</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.205939090223851</v>
@@ -8136,7 +8076,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.393951553479257</v>
+        <v>1.368771202514966</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.224687719947586</v>
@@ -8225,7 +8165,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.394965444647008</v>
+        <v>1.37544135587488</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.320707779539957</v>
@@ -8314,7 +8254,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.421709697442394</v>
+        <v>1.396776776940787</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.122541362275812</v>
@@ -8403,7 +8343,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.464741697617126</v>
+        <v>1.428507473123142</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.077157378150706</v>
@@ -8492,7 +8432,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.499765072947118</v>
+        <v>1.454632831866776</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.581729526966079</v>
@@ -8581,7 +8521,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.514188806929151</v>
+        <v>1.468368297480134</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.572169250577055</v>
@@ -8670,7 +8610,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.52272082917376</v>
+        <v>1.478097390226295</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.582304809747449</v>
@@ -8759,7 +8699,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.53093272354991</v>
+        <v>1.487649295957151</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.454493816685715</v>
@@ -9045,7 +8985,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.788801210493915</v>
+        <v>1.814509497202312</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.638533492440889</v>
@@ -9134,7 +9074,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.815930361524691</v>
+        <v>1.841725389925101</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.722089664698044</v>
@@ -9223,7 +9163,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.775616715811781</v>
+        <v>1.80029079902741</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.70259198797342</v>
@@ -9312,7 +9252,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.770377898770067</v>
+        <v>1.795944889562098</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.732029197446628</v>
@@ -9401,7 +9341,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.770437114690392</v>
+        <v>1.790285833998094</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.028928956562906</v>
@@ -9490,7 +9430,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.759729856240358</v>
+        <v>1.781567645449774</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.031032542699933</v>
@@ -9579,7 +9519,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.754074654285251</v>
+        <v>1.774309995742734</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.966108347949489</v>
@@ -9668,7 +9608,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.73870013342743</v>
+        <v>1.76907030075789</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.876270064038398</v>
@@ -9757,7 +9697,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.735370196078789</v>
+        <v>1.75915600295124</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.785679820381235</v>
@@ -9846,7 +9786,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.735706405007453</v>
+        <v>1.749369594332511</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.886975537044992</v>
@@ -9935,7 +9875,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.734213858008464</v>
+        <v>1.743506482242269</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.949583968244604</v>
@@ -10024,7 +9964,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.747607012473269</v>
+        <v>1.753167701551229</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.865560355212732</v>
@@ -10113,7 +10053,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.759079805823276</v>
+        <v>1.765701136970913</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.729435014738621</v>
@@ -10202,7 +10142,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.800594654679129</v>
+        <v>1.798129124439024</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.537618299056153</v>
@@ -10291,7 +10231,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.800217136391123</v>
+        <v>1.795605048313625</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.406758566462754</v>
@@ -10380,7 +10320,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.788772099831771</v>
+        <v>1.787764946905854</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.732307894497287</v>
@@ -10469,7 +10409,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.745433410846922</v>
+        <v>1.746462585332557</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.457225582944123</v>
@@ -10558,7 +10498,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.630022609670841</v>
+        <v>1.644637914825309</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.343675527166263</v>
@@ -10647,7 +10587,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.595024794034512</v>
+        <v>1.618780094602363</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.25564374606602</v>
@@ -10736,7 +10676,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593363484859284</v>
+        <v>1.617376006976273</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.289894037058938</v>
@@ -10825,7 +10765,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.592061245002704</v>
+        <v>1.61570744600798</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.302890675209953</v>
@@ -10914,7 +10854,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.475294379308223</v>
+        <v>1.505462552660224</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.022436657191871</v>
@@ -11003,7 +10943,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.454683079571538</v>
+        <v>1.482725372160772</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.018409166320009</v>
@@ -11092,7 +11032,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.4540680441326</v>
+        <v>1.48328422171199</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.037740961861892</v>
@@ -11181,7 +11121,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.449493838127549</v>
+        <v>1.482696149758534</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.042807118381442</v>
@@ -11270,7 +11210,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.43968123213584</v>
+        <v>1.475350595317455</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.020363084110695</v>
@@ -11359,7 +11299,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.430781980963509</v>
+        <v>1.466808099325611</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.056426567810994</v>
@@ -11448,7 +11388,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.426250663460865</v>
+        <v>1.460328440392373</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.010631315153458</v>
@@ -11537,7 +11477,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.428176958007528</v>
+        <v>1.46235650758574</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.01047849580074</v>
@@ -11626,7 +11566,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.440171316907556</v>
+        <v>1.473058823215978</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.061080460857159</v>
@@ -11715,7 +11655,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.43226865614321</v>
+        <v>1.459487928876108</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.014208327940697</v>
@@ -11804,7 +11744,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.453850208684927</v>
+        <v>1.480017487825435</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.90028822521976</v>
@@ -11893,7 +11833,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.507264820966138</v>
+        <v>1.530538517459318</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.033216357495621</v>
@@ -11982,7 +11922,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.509054766367237</v>
+        <v>1.530615315906097</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.087558445368908</v>
@@ -12071,7 +12011,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.486527008996878</v>
+        <v>1.517735196738483</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.043114250250651</v>
@@ -12160,7 +12100,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.481883208615331</v>
+        <v>1.509110166767296</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.012036271803118</v>
@@ -12249,7 +12189,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.583513327847527</v>
+        <v>1.60583263929511</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.284107886360871</v>
@@ -12338,7 +12278,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.60193879278838</v>
+        <v>1.622552499413633</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.832661296122625</v>
@@ -12427,7 +12367,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589918804492973</v>
+        <v>1.612853706354457</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.647510625150018</v>
@@ -12516,7 +12456,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.598739725615527</v>
+        <v>1.616864250075039</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.830642783301081</v>
@@ -12605,7 +12545,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607953367939255</v>
+        <v>1.620312737021805</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.619605595922114</v>
@@ -12694,7 +12634,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.615355135220444</v>
+        <v>1.624042979439943</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.656141793595739</v>
@@ -12783,7 +12723,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584797186968354</v>
+        <v>1.595718834598837</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.727987243271769</v>
@@ -12872,7 +12812,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.578318102055692</v>
+        <v>1.58873631833731</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.792218043809918</v>
@@ -12961,7 +12901,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.560738497522463</v>
+        <v>1.570685371191582</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.483833893722899</v>
@@ -13050,7 +12990,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565829574479657</v>
+        <v>1.576815940765224</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.635497857972696</v>
@@ -13139,7 +13079,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.56120032005436</v>
+        <v>1.571705427194351</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.880382501171943</v>
@@ -13228,7 +13168,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57497778872087</v>
+        <v>1.582669357390859</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.518909506842506</v>
@@ -13317,7 +13257,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6021968808322</v>
+        <v>1.600314724388136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.300041192835945</v>
@@ -13406,7 +13346,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.637430722376229</v>
+        <v>1.627045975120815</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.177458661492611</v>
@@ -13495,7 +13435,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.65595770090272</v>
+        <v>1.643259606212068</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.889940144829414</v>
@@ -13584,7 +13524,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.662294697304295</v>
+        <v>1.646573071436063</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.16559603157818</v>
@@ -13673,7 +13613,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.669024898435076</v>
+        <v>1.652939779016777</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.899280408910288</v>
@@ -13959,7 +13899,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.874498439815026</v>
+        <v>1.870321434632077</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.846864425018603</v>
@@ -14048,7 +13988,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.873439483567292</v>
+        <v>1.867394749241884</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.890004231296112</v>
@@ -14137,7 +14077,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.842388058687504</v>
+        <v>1.838246462875325</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.995285425204344</v>
@@ -14226,7 +14166,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.827819442164505</v>
+        <v>1.821573052918674</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.261500249436336</v>
@@ -14315,7 +14255,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.817250957684309</v>
+        <v>1.813695166917556</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.28243547760874</v>
@@ -14404,7 +14344,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.807409586710632</v>
+        <v>1.799625613629428</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.976031034938072</v>
@@ -14493,7 +14433,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.798194015614724</v>
+        <v>1.792158598395795</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.937664326439644</v>
@@ -14582,7 +14522,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.782790264770785</v>
+        <v>1.776634221856174</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.919598494486946</v>
@@ -14671,7 +14611,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.779950293800322</v>
+        <v>1.770941284973317</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.751637844667043</v>
@@ -14760,7 +14700,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.770302337839402</v>
+        <v>1.751215026961406</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.954659131553938</v>
@@ -14849,7 +14789,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.762319921373635</v>
+        <v>1.740897542342288</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.944326922715612</v>
@@ -14938,7 +14878,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.769024852723815</v>
+        <v>1.748333400120682</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.788382637759496</v>
@@ -15027,7 +14967,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.775632142694414</v>
+        <v>1.758175272614915</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.920527843681296</v>
@@ -15116,7 +15056,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.822484422690959</v>
+        <v>1.798001168920324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.538605486484264</v>
@@ -15205,7 +15145,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.828324080008578</v>
+        <v>1.809346389715855</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.304495564062849</v>
@@ -15294,7 +15234,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.819812780444316</v>
+        <v>1.801892085768884</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.438609792508504</v>
@@ -15383,7 +15323,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.824086433369507</v>
+        <v>1.804780113629431</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.40021356210193</v>
@@ -15472,7 +15412,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.777669966867228</v>
+        <v>1.774664663173888</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.215103789206865</v>
@@ -15561,7 +15501,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.779084503533652</v>
+        <v>1.772935777827358</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.753973594329843</v>
@@ -15650,7 +15590,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.784303523292458</v>
+        <v>1.782238146172801</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.142020034622813</v>
@@ -15739,7 +15679,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.790739293464928</v>
+        <v>1.78647847506309</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.304462341440488</v>
@@ -15828,7 +15768,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.752108929239591</v>
+        <v>1.753331645365691</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.149090335614157</v>
@@ -15917,7 +15857,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.735745852675617</v>
+        <v>1.737233541766761</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.215935236273626</v>
@@ -16006,7 +15946,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.726066389278848</v>
+        <v>1.72823144139969</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.212683837871934</v>
@@ -16095,7 +16035,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.721703276048451</v>
+        <v>1.728908113013034</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.185676352201023</v>
@@ -16184,7 +16124,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.714851125009105</v>
+        <v>1.726304931405624</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.338740634969741</v>
@@ -16273,7 +16213,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.704590130220781</v>
+        <v>1.717782796941266</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.78970526263261</v>
@@ -16362,7 +16302,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.70508036970786</v>
+        <v>1.718157243798948</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.932125504228754</v>
@@ -16451,7 +16391,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.703469786505601</v>
+        <v>1.716544553391721</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.258214911236537</v>
@@ -16540,7 +16480,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.710079668925309</v>
+        <v>1.721499204856074</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.062062550282115</v>
@@ -16629,7 +16569,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.692823832866019</v>
+        <v>1.702356132153415</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.733986912519494</v>
@@ -16718,7 +16658,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.681033878734368</v>
+        <v>1.688257128871236</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.602330472803447</v>
@@ -16807,7 +16747,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.705209480059261</v>
+        <v>1.709676065493773</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.855914509713336</v>
@@ -16896,7 +16836,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.681403358910072</v>
+        <v>1.688531485003813</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.954809324607694</v>
@@ -16985,7 +16925,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657815262822772</v>
+        <v>1.676681382010462</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.990866711652284</v>
@@ -17074,7 +17014,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.651016816004457</v>
+        <v>1.667658760651228</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.924361038013691</v>
@@ -17163,7 +17103,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.669278323794733</v>
+        <v>1.685773148999891</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.6898399736039</v>
@@ -17252,7 +17192,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.688431053613408</v>
+        <v>1.701613847102886</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.906794153944975</v>
@@ -17341,7 +17281,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.683966853860248</v>
+        <v>1.699736438466957</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.067209050016601</v>
@@ -17430,7 +17370,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.699550282993279</v>
+        <v>1.715473680078908</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.898265766061221</v>
@@ -17519,7 +17459,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.703858759057556</v>
+        <v>1.718169952639957</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.876881272903831</v>
@@ -17608,7 +17548,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.70879028851906</v>
+        <v>1.718211718972048</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.021610706405884</v>
@@ -17697,7 +17637,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.681987202940978</v>
+        <v>1.694298393976397</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.8339753991398</v>
@@ -17786,7 +17726,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.685296923567441</v>
+        <v>1.698898088317686</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.045116331125114</v>
@@ -17875,7 +17815,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.675216268262607</v>
+        <v>1.692283426008424</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.028700427100207</v>
@@ -17964,7 +17904,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.694810997293831</v>
+        <v>1.70303917341842</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.366508030112852</v>
@@ -18053,7 +17993,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.698396301805217</v>
+        <v>1.706218779734928</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.104643021630368</v>
@@ -18142,7 +18082,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.703347192104364</v>
+        <v>1.704896431084635</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.985489853771911</v>
@@ -18231,7 +18171,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.733785591130484</v>
+        <v>1.726359077545937</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.935006557768534</v>
@@ -18320,7 +18260,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.756874876004072</v>
+        <v>1.741263779851519</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.35295743346147</v>
@@ -18409,7 +18349,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.763385006150999</v>
+        <v>1.754590709466601</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.490324686622919</v>
@@ -18498,7 +18438,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.772287812328412</v>
+        <v>1.760043793313755</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.495022761056001</v>
@@ -18587,7 +18527,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.775898907253917</v>
+        <v>1.762288315772577</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.056817258502096</v>
@@ -18873,7 +18813,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.734688105911947</v>
+        <v>1.730047242822149</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.608125375408333</v>
@@ -18962,7 +18902,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.73710573109665</v>
+        <v>1.723285066690182</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.450861688655412</v>
@@ -19051,7 +18991,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.684157107233145</v>
+        <v>1.658941766761241</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.500164321249887</v>
@@ -19140,7 +19080,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.667405161167833</v>
+        <v>1.63670715580951</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.501091948125422</v>
@@ -19229,7 +19169,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.648903864472234</v>
+        <v>1.617026460092123</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.464026001692309</v>
@@ -19318,7 +19258,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.633440776769672</v>
+        <v>1.602761996970857</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.511968454818177</v>
@@ -19407,7 +19347,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626811778001388</v>
+        <v>1.590141122721662</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.476950408183617</v>
@@ -19496,7 +19436,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.60301985684042</v>
+        <v>1.555363584694795</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.341617466874799</v>
@@ -19585,7 +19525,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597438701083753</v>
+        <v>1.547590808755081</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.338477923791476</v>
@@ -19674,7 +19614,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610504996862163</v>
+        <v>1.548719540642411</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.39482834968356</v>
@@ -19763,7 +19703,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.610363605253777</v>
+        <v>1.547077533756471</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.397341946096301</v>
@@ -19852,7 +19792,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.611440151037412</v>
+        <v>1.54733086721871</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.363632829456179</v>
@@ -19941,7 +19881,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.612721899134658</v>
+        <v>1.545425447687649</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.320745344796075</v>
@@ -20030,7 +19970,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.660048764042929</v>
+        <v>1.580890228974171</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.05083064136041</v>
@@ -20119,7 +20059,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.666797506591421</v>
+        <v>1.589781115723266</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.603168001294407</v>
@@ -20208,7 +20148,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.670252221202045</v>
+        <v>1.60137654311019</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.294144664312198</v>
@@ -20297,7 +20237,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.654994989268314</v>
+        <v>1.588920888264296</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.555010261888973</v>
@@ -20386,7 +20326,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.596364431332366</v>
+        <v>1.550049536165085</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.525430005476063</v>
@@ -20475,7 +20415,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596829913166194</v>
+        <v>1.548653071807972</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.432978331261882</v>
@@ -20564,7 +20504,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.608512039778219</v>
+        <v>1.57012685481136</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.545392218164295</v>
@@ -20653,7 +20593,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614392828694379</v>
+        <v>1.573920311027124</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.422828629224102</v>
@@ -20742,7 +20682,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.562949282377199</v>
+        <v>1.533915315450635</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.517584771343936</v>
@@ -20831,7 +20771,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.545339872804139</v>
+        <v>1.530038951244818</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.38613640366263</v>
@@ -20920,7 +20860,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.537094353026512</v>
+        <v>1.524376099045425</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.469401525477737</v>
@@ -21009,7 +20949,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.531875920956629</v>
+        <v>1.528401385885018</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.503940566772403</v>
@@ -21098,7 +21038,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.529239985296975</v>
+        <v>1.523372194315234</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.406435712276246</v>
@@ -21187,7 +21127,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.523081759944218</v>
+        <v>1.518636510764249</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.415332538944116</v>
@@ -21276,7 +21216,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.524200421794344</v>
+        <v>1.516606387223987</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.421088626803706</v>
@@ -21365,7 +21305,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.5253428288611</v>
+        <v>1.513722004618612</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.486368572771237</v>
@@ -21454,7 +21394,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527262741004677</v>
+        <v>1.512610331637533</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.42423553998408</v>
@@ -21543,7 +21483,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.508692001170801</v>
+        <v>1.4921517275212</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.524728229592738</v>
@@ -21632,7 +21572,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.500603415835062</v>
+        <v>1.488569719082941</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.153057689999654</v>
@@ -21721,7 +21661,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.533378559142848</v>
+        <v>1.515892071063698</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.435986858845836</v>
@@ -21810,7 +21750,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.516752029991277</v>
+        <v>1.505823469211577</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.652608185690879</v>
@@ -21899,7 +21839,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.50794637841318</v>
+        <v>1.505097710418416</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.527295435801249</v>
@@ -21988,7 +21928,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.503848018721137</v>
+        <v>1.500422052194028</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.637017716586297</v>
@@ -22077,7 +22017,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.553760955908305</v>
+        <v>1.546959583119401</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.344045001425821</v>
@@ -22166,7 +22106,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.571212665734756</v>
+        <v>1.562780604009865</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.743268104423695</v>
@@ -22255,7 +22195,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.560465911962138</v>
+        <v>1.555091483160283</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.816484274313207</v>
@@ -22344,7 +22284,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.570198594291528</v>
+        <v>1.563046903027446</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.708262923679513</v>
@@ -22433,7 +22373,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.580037546493087</v>
+        <v>1.570721893132097</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.783771515627852</v>
@@ -22522,7 +22462,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.57893616883618</v>
+        <v>1.56872554662011</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.803382991954609</v>
@@ -22611,7 +22551,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.560760696584889</v>
+        <v>1.554058956524067</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.671758924929895</v>
@@ -22700,7 +22640,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.564759466576745</v>
+        <v>1.564500768174195</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.760215287222154</v>
@@ -22789,7 +22729,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556396864103003</v>
+        <v>1.55762589484891</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.705206934245031</v>
@@ -22878,7 +22818,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.575193139433968</v>
+        <v>1.573736571248124</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.838142119735874</v>
@@ -22967,7 +22907,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594444105804693</v>
+        <v>1.58754180727408</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.988588091960981</v>
@@ -23056,7 +22996,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.602867603403696</v>
+        <v>1.587716387424418</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.773335497538115</v>
@@ -23145,7 +23085,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.629001750680778</v>
+        <v>1.607483718391596</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.830210368615838</v>
@@ -23234,7 +23174,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.639909048330927</v>
+        <v>1.610737504838863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.308003076190348</v>
@@ -23323,7 +23263,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.641850680793758</v>
+        <v>1.614854424685455</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.236048714070878</v>
@@ -23412,7 +23352,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.63527887174441</v>
+        <v>1.606503225431394</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.126280298791267</v>
@@ -23501,7 +23441,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.637555401089689</v>
+        <v>1.610422903645355</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.060100930247115</v>
@@ -23787,7 +23727,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.259888227884859</v>
+        <v>1.24756118788709</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.530058477268554</v>
@@ -23876,7 +23816,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.2443471873138</v>
+        <v>1.231112338925236</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.522858750078114</v>
@@ -23965,7 +23905,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.232677919919791</v>
+        <v>1.214997390546822</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.501644977072165</v>
@@ -24054,7 +23994,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.228816823091428</v>
+        <v>1.212921329954074</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.48754504740265</v>
@@ -24143,7 +24083,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.225918038557126</v>
+        <v>1.211046288078439</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.483944536297328</v>
@@ -24232,7 +24172,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.223566873747361</v>
+        <v>1.207813661308369</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.482618872672984</v>
@@ -24321,7 +24261,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.222519688603462</v>
+        <v>1.204908229733252</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.4775801564703</v>
@@ -24410,7 +24350,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.221379699782372</v>
+        <v>1.202403872080792</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.476314204902669</v>
@@ -24499,7 +24439,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.221217335117725</v>
+        <v>1.201988256280072</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.480820173132896</v>
@@ -24588,7 +24528,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.235427326575503</v>
+        <v>1.217595549288239</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.409825117132808</v>
@@ -24677,7 +24617,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.259796515157145</v>
+        <v>1.245177031523916</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.391143530936433</v>
@@ -24766,7 +24706,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.261933866245221</v>
+        <v>1.246991357564049</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.396979079676037</v>
@@ -24855,7 +24795,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.268542805661377</v>
+        <v>1.253564266715147</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.376345861443139</v>
@@ -24944,7 +24884,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571633204201633</v>
+        <v>1.539187862357541</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.669328646432993</v>
@@ -25033,7 +24973,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670026785203186</v>
+        <v>1.617118512512838</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.46999303285686</v>
@@ -25122,7 +25062,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.674379792819276</v>
+        <v>1.620867450649495</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.293866902256759</v>
@@ -25211,7 +25151,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.669224827171697</v>
+        <v>1.61568311170255</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.356997674399802</v>
@@ -25300,7 +25240,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.595040344357345</v>
+        <v>1.562507867538812</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.398065052956127</v>
@@ -25389,7 +25329,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586894112742781</v>
+        <v>1.555407091095338</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.378093540825821</v>
@@ -25478,7 +25418,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.598056903467767</v>
+        <v>1.571301396927782</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.444604024339251</v>
@@ -25567,7 +25507,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608359589613768</v>
+        <v>1.582693847778332</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.435464576143881</v>
@@ -25656,7 +25596,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568470295533184</v>
+        <v>1.54929785064952</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.368125727300824</v>
@@ -25745,7 +25685,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.557082174895913</v>
+        <v>1.543413405233075</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.414465140185049</v>
@@ -25834,7 +25774,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.554633119632109</v>
+        <v>1.540669238890153</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.40114691929274</v>
@@ -25923,7 +25863,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.554596654559685</v>
+        <v>1.549539236197525</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.378572054774291</v>
@@ -26012,7 +25952,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.545483657881481</v>
+        <v>1.53793613775127</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.368751179868015</v>
@@ -26101,7 +26041,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.547446068377852</v>
+        <v>1.543037448943693</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.408096171262813</v>
@@ -26190,7 +26130,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.550502834893725</v>
+        <v>1.539795829829174</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.341672579900654</v>
@@ -26279,7 +26219,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.554950568199242</v>
+        <v>1.541239195360423</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.188978253706966</v>
@@ -26368,7 +26308,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557190730756857</v>
+        <v>1.549927380733373</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.359534226213185</v>
@@ -26457,7 +26397,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488935029595807</v>
+        <v>1.473224081947148</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.800652139697536</v>
@@ -26546,7 +26486,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.399503571181826</v>
+        <v>1.352454010382006</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.703773396927393</v>
@@ -26635,7 +26575,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.394355137023101</v>
+        <v>1.349363577142111</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.735519145330984</v>
@@ -26724,7 +26664,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.35330955496106</v>
+        <v>1.307442473663733</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.776457065233739</v>
@@ -26813,7 +26753,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.325941179920478</v>
+        <v>1.293727634860401</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.795459463756697</v>
@@ -26902,7 +26842,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.327844933989227</v>
+        <v>1.292376344433107</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.817604435318423</v>
@@ -26991,7 +26931,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.327845504329646</v>
+        <v>1.294083239992866</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.805559207566523</v>
@@ -27080,7 +27020,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.333569389031413</v>
+        <v>1.297665101690877</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.837197813071526</v>
@@ -27169,7 +27109,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.330362414076648</v>
+        <v>1.296160551818246</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.850717958918732</v>
@@ -27258,7 +27198,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.331239236901241</v>
+        <v>1.296187595668399</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.849211365345543</v>
@@ -27347,7 +27287,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.333150593118494</v>
+        <v>1.298445842212659</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.838151664715619</v>
@@ -27436,7 +27376,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.334582988487022</v>
+        <v>1.297549104109015</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.850833543154332</v>
@@ -27525,7 +27465,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.327942189220428</v>
+        <v>1.290916845143903</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.872734745847005</v>
@@ -27614,7 +27554,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.323223250516026</v>
+        <v>1.287195620252458</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.876572250346115</v>
@@ -27703,7 +27643,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.322703515393193</v>
+        <v>1.283919936572472</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.916265213087924</v>
@@ -27792,7 +27732,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.346421979065947</v>
+        <v>1.313514768020496</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.958910696177963</v>
@@ -27881,7 +27821,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.343605860767143</v>
+        <v>1.325268624663997</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.023305955063587</v>
@@ -27970,7 +27910,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.365790891719587</v>
+        <v>1.343782733971402</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.886357638914661</v>
@@ -28059,7 +27999,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.422530925373866</v>
+        <v>1.396589671802787</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.945288989098071</v>
@@ -28148,7 +28088,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.458884347259352</v>
+        <v>1.428407374056424</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.293354022036087</v>
@@ -28237,7 +28177,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.468624863562733</v>
+        <v>1.437790719603073</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.342731905456995</v>
@@ -28326,7 +28266,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.480385785021368</v>
+        <v>1.448705336148925</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.269630268469784</v>
@@ -28415,7 +28355,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.485231874353387</v>
+        <v>1.452556115266304</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.152352930356519</v>
@@ -28701,7 +28641,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.607393035399519</v>
+        <v>1.661988515994611</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.129262245868318</v>
@@ -28790,7 +28730,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.640698599465977</v>
+        <v>1.6865370905159</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.11639168352834</v>
@@ -28879,7 +28819,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.700081981677216</v>
+        <v>1.738393008229672</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.654576987104642</v>
@@ -28968,7 +28908,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.71993144755105</v>
+        <v>1.760616673393282</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.981875840714268</v>
@@ -29057,7 +28997,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.696829261631451</v>
+        <v>1.739069672443311</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.914824280517383</v>
@@ -29146,7 +29086,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.698189163259837</v>
+        <v>1.734234564413367</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.807581474498618</v>
@@ -29235,7 +29175,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.683820967269275</v>
+        <v>1.721074141605522</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.876649503294926</v>
@@ -29324,7 +29264,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.672497660836517</v>
+        <v>1.706306322880658</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.969052383060735</v>
@@ -29413,7 +29353,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.680031999994845</v>
+        <v>1.710298013011291</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.037993886496429</v>
@@ -29502,7 +29442,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.66867470414094</v>
+        <v>1.693688382776847</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.91571236214955</v>
@@ -29591,7 +29531,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.66468827444471</v>
+        <v>1.694194434756013</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.809235624925732</v>
@@ -29680,7 +29620,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.683604192845043</v>
+        <v>1.711019434259263</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.001710763044879</v>
@@ -29769,7 +29709,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.690567495635671</v>
+        <v>1.716793888594152</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.709307863663291</v>
@@ -29858,7 +29798,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.722551736281303</v>
+        <v>1.741452793461293</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.054512167899352</v>
@@ -29947,7 +29887,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.728051695771894</v>
+        <v>1.743184180421155</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.031603246439876</v>
@@ -30036,7 +29976,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.717149379842275</v>
+        <v>1.739670071216129</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.228543393224758</v>
@@ -30125,7 +30065,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.624329940706832</v>
+        <v>1.635967999129586</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.891693275738644</v>
@@ -30214,7 +30154,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.458734159748105</v>
+        <v>1.489905849608838</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.836745503500682</v>
@@ -30303,7 +30243,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.430018878516994</v>
+        <v>1.456993100487727</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.888522552907248</v>
@@ -30392,7 +30332,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.431216041771166</v>
+        <v>1.460204815645949</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.839148278102993</v>
@@ -30481,7 +30421,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.423410310386011</v>
+        <v>1.452299767145108</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.820904113691597</v>
@@ -30570,7 +30510,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.360334299096068</v>
+        <v>1.385028551196496</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.858227123390445</v>
@@ -30659,7 +30599,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.339575116421326</v>
+        <v>1.362826351924038</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.879163255263449</v>
@@ -30748,7 +30688,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.330835218487778</v>
+        <v>1.355711691347339</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.850979622255727</v>
@@ -30837,7 +30777,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.327647472155196</v>
+        <v>1.351943574977273</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.844205555422775</v>
@@ -30926,7 +30866,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.321139306921733</v>
+        <v>1.34495287263377</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.874005871287621</v>
@@ -31015,7 +30955,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.314790713671577</v>
+        <v>1.337462620354867</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.868952687976749</v>
@@ -31104,7 +31044,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.310872269883592</v>
+        <v>1.333378908624008</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.87527372184785</v>
@@ -31193,7 +31133,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.309493739518851</v>
+        <v>1.332804705979183</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.861178675668685</v>
@@ -31282,7 +31222,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.319666205786434</v>
+        <v>1.344766065738145</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.8631299765575</v>
@@ -31371,7 +31311,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.313763735040979</v>
+        <v>1.329896109654674</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.870193703886787</v>
@@ -31460,7 +31400,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.351927857583026</v>
+        <v>1.36854802643395</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.700303722518621</v>
@@ -31549,7 +31489,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.426449689835438</v>
+        <v>1.445561584024447</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.934096277126181</v>
@@ -31638,7 +31578,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.437354887450951</v>
+        <v>1.460487760793697</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.034310195250084</v>
@@ -31727,7 +31667,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.423786055985047</v>
+        <v>1.453270929639249</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.02872417220238</v>
@@ -31816,7 +31756,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.434838426590503</v>
+        <v>1.461319086271151</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.973335976879432</v>
@@ -31905,7 +31845,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.529316755693652</v>
+        <v>1.559788017868367</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.452606988765591</v>
@@ -31994,7 +31934,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568336357783968</v>
+        <v>1.596381412359167</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.830688900628792</v>
@@ -32083,7 +32023,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.575580485703038</v>
+        <v>1.600579525710391</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.755279140656865</v>
@@ -32172,7 +32112,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603622398263397</v>
+        <v>1.631775518490785</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.888755628305429</v>
@@ -32261,7 +32201,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622611520617779</v>
+        <v>1.650347018460828</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.698718567570425</v>
@@ -32350,7 +32290,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.636033165553593</v>
+        <v>1.662569190176943</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.711500530629388</v>
@@ -32439,7 +32379,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.611377136426402</v>
+        <v>1.639746553609537</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.861270231903922</v>
@@ -32528,7 +32468,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.60357007357808</v>
+        <v>1.627909763410265</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.798536719062064</v>
@@ -32617,7 +32557,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588809004191553</v>
+        <v>1.617834039557776</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.523923607985886</v>
@@ -32706,7 +32646,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.596199246201023</v>
+        <v>1.629613401904855</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.457568267846542</v>
@@ -32795,7 +32735,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.604814342510125</v>
+        <v>1.633550161848248</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.716407088772666</v>
@@ -32884,7 +32824,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.634937152855805</v>
+        <v>1.661886522895153</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.779102903064376</v>
@@ -32973,7 +32913,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.659717176845359</v>
+        <v>1.682622179972686</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.681530999888986</v>
@@ -33062,7 +33002,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.677423976284979</v>
+        <v>1.700082952867121</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.277841092057617</v>
@@ -33151,7 +33091,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.683853021694123</v>
+        <v>1.707519621179715</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.835188133989333</v>
@@ -33240,7 +33180,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.674603933711228</v>
+        <v>1.695964638543345</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.985369157021668</v>
@@ -33329,7 +33269,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.670781953702628</v>
+        <v>1.69306510424263</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.054712852156073</v>
